--- a/BioactivityModels/HDAC1/models/Regression/OUTPUT/EvaluationResults.xlsx
+++ b/BioactivityModels/HDAC1/models/Regression/OUTPUT/EvaluationResults.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.683642581022862</v>
+        <v>0.6807784467545627</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03594752116826892</v>
+        <v>0.02553605817873348</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8328135609997526</v>
+        <v>0.8321025488740412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02087113015108232</v>
+        <v>0.01749523915829225</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8330109909819609</v>
+        <v>0.8309455519383632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02825444568069018</v>
+        <v>0.02481878422344192</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8532541891437283</v>
+        <v>0.8548101523078547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02249479591574795</v>
+        <v>0.02397779369039548</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.81045</v>
+        <v>0.807194</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03178530176297316</v>
+        <v>0.02830178771305979</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8427304436549963</v>
+        <v>0.8423684334437719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02036180456197982</v>
+        <v>0.01751306892569684</v>
       </c>
     </row>
     <row r="8">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8326685904833814</v>
+        <v>0.831918886446506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02093790869364406</v>
+        <v>0.01752696332899967</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8319314362731434</v>
+        <v>0.8311479930248875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02098234040661093</v>
+        <v>0.01754911812571582</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8318501392207155</v>
+        <v>0.8310053743143534</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02112389229648661</v>
+        <v>0.01745472697808747</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6647717630721943</v>
+        <v>0.6634534029714765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04180901288540382</v>
+        <v>0.03491329361663161</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.832834</v>
+        <v>0.833958</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02547293569774054</v>
+        <v>0.02615241893834164</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8318501392207155</v>
+        <v>0.8310053743143534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02112389229648662</v>
+        <v>0.01745472697808745</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7056144144541489</v>
+        <v>0.7025111363086483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03597839401179099</v>
+        <v>0.02470783379758652</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8316984904726552</v>
+        <v>0.829962583518931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01933048543259789</v>
+        <v>0.01679499426843057</v>
       </c>
     </row>
     <row r="4">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8445258881593637</v>
+        <v>0.841218390448103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02566794292396469</v>
+        <v>0.02327805787531907</v>
       </c>
     </row>
     <row r="5">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8333579194165891</v>
+        <v>0.8341142869635675</v>
       </c>
       <c r="D5" t="n">
-        <v>0.026755848243982</v>
+        <v>0.02649700475678737</v>
       </c>
     </row>
     <row r="6">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8299839999999999</v>
+        <v>0.8254319999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02845921076823846</v>
+        <v>0.02640871408440473</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8385773467138388</v>
+        <v>0.8372960572348511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02022562245823761</v>
+        <v>0.01785623434010699</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8317241602068761</v>
+        <v>0.8299682626625777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01937299614101172</v>
+        <v>0.01678779859508431</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8311462650928066</v>
+        <v>0.8293487036261717</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01933332823953839</v>
+        <v>0.01675474004540455</v>
       </c>
     </row>
     <row r="10">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8316725191413427</v>
+        <v>0.8297723184136572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0195367108787827</v>
+        <v>0.01672471598967783</v>
       </c>
     </row>
     <row r="11">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6630792258396144</v>
+        <v>0.6595099890663465</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03865440135657611</v>
+        <v>0.03348126304242634</v>
       </c>
     </row>
     <row r="12">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8182880000000001</v>
+        <v>0.8182579999999998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02586703551879519</v>
+        <v>0.02592201089768291</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8316725191413427</v>
+        <v>0.8297723184136572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0195367108787827</v>
+        <v>0.01672471598967783</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7141640000590851</v>
+        <v>0.7125768740230027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03427523415337851</v>
+        <v>0.02391794857403803</v>
       </c>
     </row>
     <row r="3">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8370889383815887</v>
+        <v>0.8366891363523883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01839462562508199</v>
+        <v>0.0157735359493348</v>
       </c>
     </row>
     <row r="4">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8390278169532737</v>
+        <v>0.8406516858264177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02396556846652135</v>
+        <v>0.02242608470366684</v>
       </c>
     </row>
     <row r="5">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.853983338612622</v>
+        <v>0.8508306644282639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02601819494894241</v>
+        <v>0.02467303713115537</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.81857</v>
+        <v>0.8210400000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02650675116159762</v>
+        <v>0.02646812484202577</v>
       </c>
     </row>
     <row r="7">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8461344985151963</v>
+        <v>0.8453755927391707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01899899974672247</v>
+        <v>0.01625791113675387</v>
       </c>
     </row>
     <row r="8">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8369814031072513</v>
+        <v>0.8366000091863516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01841603345758843</v>
+        <v>0.01576197674870596</v>
       </c>
     </row>
     <row r="9">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8362927897710055</v>
+        <v>0.835903497881561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01838255617614894</v>
+        <v>0.01578800859274338</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8362745670689314</v>
+        <v>0.8359347923833752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01846547768456356</v>
+        <v>0.01574509591048038</v>
       </c>
     </row>
     <row r="11">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6734178531904916</v>
+        <v>0.6726286358788031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03680789650485403</v>
+        <v>0.03166476891507117</v>
       </c>
     </row>
     <row r="12">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.835264</v>
+        <v>0.832742</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02659300015310151</v>
+        <v>0.02526380883268976</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8362745670689314</v>
+        <v>0.8359347923833752</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01846547768456353</v>
+        <v>0.01574509591048038</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6627768760415598</v>
+        <v>0.6603189337684975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04038067509826529</v>
+        <v>0.03320883754884141</v>
       </c>
     </row>
     <row r="3">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8193229398663697</v>
+        <v>0.8202138084632519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01687841441103514</v>
+        <v>0.01899122848294163</v>
       </c>
     </row>
     <row r="4">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8284957255360084</v>
+        <v>0.8296144686962088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02337070259152653</v>
+        <v>0.02107775356168779</v>
       </c>
     </row>
     <row r="5">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8276049235684991</v>
+        <v>0.8282887685886745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0210544591698184</v>
+        <v>0.03143914656983188</v>
       </c>
     </row>
     <row r="6">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8102619999999999</v>
+        <v>0.81145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.025107742443562</v>
+        <v>0.02428564915957655</v>
       </c>
     </row>
     <row r="7">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8278222000810167</v>
+        <v>0.8285593772450263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01733318286626672</v>
+        <v>0.01949311707121323</v>
       </c>
     </row>
     <row r="8">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8193282773512227</v>
+        <v>0.8202043930832749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01689610417935764</v>
+        <v>0.01891162044003608</v>
       </c>
     </row>
     <row r="9">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8186512543854749</v>
+        <v>0.8195222143366143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.016862533202047</v>
+        <v>0.01900188818496525</v>
       </c>
     </row>
     <row r="10">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8189323935893736</v>
+        <v>0.8198705913914577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01699361241329398</v>
+        <v>0.01880093374156847</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6378046663437278</v>
+        <v>0.6399082627030944</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03380019964584886</v>
+        <v>0.03822011155659995</v>
       </c>
     </row>
     <row r="12">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8092520000000001</v>
+        <v>0.8104600000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02276356056938189</v>
+        <v>0.03271734234004832</v>
       </c>
     </row>
     <row r="13">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8189323935893736</v>
+        <v>0.8198705913914577</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01699361241329398</v>
+        <v>0.01880093374156849</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7105921929922896</v>
+        <v>0.7134828397952719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03551770036687172</v>
+        <v>0.02501097003083421</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8367295223954468</v>
+        <v>0.8399814897302649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01683846860376959</v>
+        <v>0.01763945936856931</v>
       </c>
     </row>
     <row r="4">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8430342127221232</v>
+        <v>0.8468281354585458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02145831195903527</v>
+        <v>0.02340900591933882</v>
       </c>
     </row>
     <row r="5">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8469462778444934</v>
+        <v>0.8498359181225917</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02437604009837755</v>
+        <v>0.02673675081207115</v>
       </c>
     </row>
     <row r="6">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8254319999999999</v>
+        <v>0.829298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02300430696142595</v>
+        <v>0.02840155564868422</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1456,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.84474901578113</v>
+        <v>0.8479380539505488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01787727466067224</v>
+        <v>0.01702802179071703</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8366977661126406</v>
+        <v>0.8399422566386806</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01683403513150626</v>
+        <v>0.01764995142822005</v>
       </c>
     </row>
     <row r="9">
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8360530791462111</v>
+        <v>0.8393027725546232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01677775062677223</v>
+        <v>0.01779203305965085</v>
       </c>
     </row>
     <row r="10">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8361873331183648</v>
+        <v>0.839566994870975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01688288103005983</v>
+        <v>0.01782901681909002</v>
       </c>
     </row>
     <row r="11">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.672638143419891</v>
+        <v>0.6794708419547071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0337400733123729</v>
+        <v>0.03571194622536493</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.829864</v>
+        <v>0.8329840000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02436115811060295</v>
+        <v>0.02892617175232315</v>
       </c>
     </row>
     <row r="13">
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8361873331183648</v>
+        <v>0.839566994870975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01688288103005983</v>
+        <v>0.01782901681909003</v>
       </c>
     </row>
   </sheetData>
